--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-80_original/ori1/42/incorrect_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-80_original/ori1/42/incorrect_predictions_42.xlsx
@@ -462,21 +462,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone . Flight altitude restricted to nnn .</t>
+          <t>Aircraft GPS signal too weak . Home Point not updated .</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone</t>
+          <t>Home Point not updated</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0-10</t>
+          <t>6-9</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -496,17 +496,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>GEO Zone Info:</t>
+          <t>GEO Zone Info: The target area is in an Altitude Zone</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-10</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
@@ -562,21 +562,21 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Drag a box around or tap a target on screen . Then tap Go .</t>
+          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Drag a box around or tap a target on screen</t>
+          <t>When exceeding nnn, Obstacle Avoidance is not available</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0-9</t>
+          <t>7-14</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -587,21 +587,21 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Drag a box around or tap a target on screen . Then tap Go .</t>
+          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Drag a box around or tap a target on</t>
+          <t>When exceeding nnn,</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0-8</t>
+          <t>7-9</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-80_original/ori1/42/incorrect_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-80_original/ori1/42/incorrect_predictions_42.xlsx
@@ -462,21 +462,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Aircraft GPS signal too weak . Home Point not updated .</t>
+          <t>GEO Zone Info: The target area is in an Altitude Zone . Flight altitude restricted to nnn .</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Home Point not updated</t>
+          <t>GEO Zone Info: The target area is in an Altitude Zone</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6-9</t>
+          <t>0-10</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -496,17 +496,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone</t>
+          <t>GEO Zone Info:</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0-10</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -562,21 +562,21 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
+          <t>Drag a box around or tap a target on screen . Then tap Go .</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>When exceeding nnn, Obstacle Avoidance is not available</t>
+          <t>Drag a box around or tap a target on screen</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>7-14</t>
+          <t>0-9</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -587,21 +587,21 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
+          <t>Drag a box around or tap a target on screen . Then tap Go .</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>When exceeding nnn,</t>
+          <t>Drag a box around or tap a target on</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>7-9</t>
+          <t>0-8</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
